--- a/Additional File 02.xlsx
+++ b/Additional File 02.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murilo\Documents\GitHub\DepthVariation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="299" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="299" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_from_Phase_I_II_III" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Data_from_Phase_III_only" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sampling" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Data_from_Phase_I_II_III" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_from_Phase_III_only" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="1372">
   <si>
     <t>BAM</t>
   </si>
@@ -4138,30 +4141,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4173,7 +4158,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4181,2856 +4166,3091 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.1836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.7397959183674"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.6938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="4.42578125"/>
+    <col min="2" max="2" width="78.28515625"/>
+    <col min="3" max="3" width="32.7109375"/>
+    <col min="4" max="4" width="81.140625"/>
+    <col min="5" max="5" width="32.7109375"/>
+    <col min="6" max="6" width="81.7109375"/>
+    <col min="7" max="7" width="32.7109375"/>
+    <col min="8" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>152</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>158</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>168</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>176</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>182</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>187</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>193</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>194</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>199</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" t="s">
         <v>200</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>203</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>205</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" t="s">
         <v>206</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" t="s">
         <v>212</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>215</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>216</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>217</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>222</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>223</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>224</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>227</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>228</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>229</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>230</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>233</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>234</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>235</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>236</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>239</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>240</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>241</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>242</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>244</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>245</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>246</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>247</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>248</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>251</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>252</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>253</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" t="s">
         <v>254</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>256</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>259</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>260</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>262</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>263</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>264</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>265</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>266</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>268</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>269</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>270</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>271</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" t="s">
         <v>272</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>274</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>275</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>276</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" t="s">
         <v>277</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" t="s">
         <v>278</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>280</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>281</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>282</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>283</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" t="s">
         <v>284</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>286</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>287</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>288</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>289</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" t="s">
         <v>290</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>292</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>293</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>294</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" t="s">
         <v>295</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" t="s">
         <v>296</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>298</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>299</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>300</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" t="s">
         <v>301</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" t="s">
         <v>302</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>304</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>305</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>306</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" t="s">
         <v>307</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" t="s">
         <v>308</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>310</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>311</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>312</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>313</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" t="s">
         <v>314</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>316</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>317</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>318</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" t="s">
         <v>319</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" t="s">
         <v>320</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>322</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>323</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>324</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" t="s">
         <v>325</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" t="s">
         <v>326</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>328</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>329</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>330</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" t="s">
         <v>331</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" t="s">
         <v>332</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>334</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>335</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>336</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" t="s">
         <v>337</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" t="s">
         <v>338</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>340</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>341</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>342</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" t="s">
         <v>343</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" t="s">
         <v>344</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>346</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>347</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>348</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" t="s">
         <v>349</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" t="s">
         <v>350</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>352</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>353</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>354</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" t="s">
         <v>355</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" t="s">
         <v>356</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>358</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>359</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" t="s">
         <v>360</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" t="s">
         <v>361</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" t="s">
         <v>362</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>364</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>365</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>366</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" t="s">
         <v>367</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" t="s">
         <v>368</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>370</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>371</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>372</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" t="s">
         <v>373</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" t="s">
         <v>374</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>376</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>377</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>378</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" t="s">
         <v>379</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" t="s">
         <v>380</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>382</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>383</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" t="s">
         <v>384</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" t="s">
         <v>385</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" t="s">
         <v>386</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>388</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>389</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" t="s">
         <v>390</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" t="s">
         <v>391</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" t="s">
         <v>392</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>394</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>395</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>396</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" t="s">
         <v>397</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" t="s">
         <v>398</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>400</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>401</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>402</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" t="s">
         <v>403</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" t="s">
         <v>404</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>406</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>407</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>408</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" t="s">
         <v>409</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" t="s">
         <v>410</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>412</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>413</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>414</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" t="s">
         <v>415</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" t="s">
         <v>416</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>418</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>419</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>420</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" t="s">
         <v>421</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" t="s">
         <v>422</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>424</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>425</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>426</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" t="s">
         <v>427</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" t="s">
         <v>428</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>430</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>431</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>432</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" t="s">
         <v>433</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" t="s">
         <v>434</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>436</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>437</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" t="s">
         <v>438</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" t="s">
         <v>439</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" t="s">
         <v>440</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>442</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>443</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" t="s">
         <v>444</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" t="s">
         <v>445</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" t="s">
         <v>446</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>448</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>449</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" t="s">
         <v>450</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" t="s">
         <v>451</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" t="s">
         <v>452</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G76" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>454</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>455</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" t="s">
         <v>456</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" t="s">
         <v>457</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" t="s">
         <v>458</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>460</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>461</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" t="s">
         <v>462</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" t="s">
         <v>463</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" t="s">
         <v>464</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>466</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>467</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" t="s">
         <v>468</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" t="s">
         <v>469</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" t="s">
         <v>470</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="G79" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>472</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>473</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" t="s">
         <v>474</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" t="s">
         <v>475</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" t="s">
         <v>476</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="G80" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>478</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>479</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" t="s">
         <v>480</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" t="s">
         <v>481</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" t="s">
         <v>482</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>484</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>485</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" t="s">
         <v>486</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" t="s">
         <v>487</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" t="s">
         <v>488</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>490</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>491</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" t="s">
         <v>492</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" t="s">
         <v>493</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" t="s">
         <v>494</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="G83" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>496</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>497</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" t="s">
         <v>498</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" t="s">
         <v>499</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" t="s">
         <v>500</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="G84" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>502</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>503</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" t="s">
         <v>504</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" t="s">
         <v>505</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" t="s">
         <v>506</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="G85" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>508</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>509</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" t="s">
         <v>510</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" t="s">
         <v>511</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" t="s">
         <v>512</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="G86" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>514</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>515</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" t="s">
         <v>516</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" t="s">
         <v>517</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" t="s">
         <v>518</v>
       </c>
-      <c r="G87" s="0" t="s">
+      <c r="G87" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>520</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>521</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" t="s">
         <v>522</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" t="s">
         <v>523</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" t="s">
         <v>524</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="G88" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>526</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>527</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" t="s">
         <v>528</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" t="s">
         <v>529</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" t="s">
         <v>530</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="G89" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>532</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>533</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" t="s">
         <v>534</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" t="s">
         <v>535</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" t="s">
         <v>536</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="G90" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>538</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>539</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" t="s">
         <v>540</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" t="s">
         <v>541</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" t="s">
         <v>542</v>
       </c>
-      <c r="G91" s="0" t="s">
+      <c r="G91" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>544</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>545</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" t="s">
         <v>546</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" t="s">
         <v>547</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" t="s">
         <v>548</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>550</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>551</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" t="s">
         <v>552</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" t="s">
         <v>553</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" t="s">
         <v>554</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="G93" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>556</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>557</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>558</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" t="s">
         <v>559</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" t="s">
         <v>560</v>
       </c>
-      <c r="G94" s="0" t="s">
+      <c r="G94" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>562</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>563</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" t="s">
         <v>564</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" t="s">
         <v>565</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" t="s">
         <v>566</v>
       </c>
-      <c r="G95" s="0" t="s">
+      <c r="G95" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>568</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>569</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" t="s">
         <v>570</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" t="s">
         <v>571</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" t="s">
         <v>572</v>
       </c>
-      <c r="G96" s="0" t="s">
+      <c r="G96" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>574</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>575</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" t="s">
         <v>576</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" t="s">
         <v>577</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" t="s">
         <v>578</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="G97" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>580</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>581</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" t="s">
         <v>582</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" t="s">
         <v>583</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" t="s">
         <v>584</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="G98" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>586</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>587</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" t="s">
         <v>588</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" t="s">
         <v>589</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F99" t="s">
         <v>590</v>
       </c>
-      <c r="G99" s="0" t="s">
+      <c r="G99" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>592</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>593</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" t="s">
         <v>594</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" t="s">
         <v>595</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" t="s">
         <v>596</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="G100" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>598</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>599</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" t="s">
         <v>600</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" t="s">
         <v>601</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" t="s">
         <v>602</v>
       </c>
-      <c r="G101" s="0" t="s">
+      <c r="G101" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>604</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" t="s">
         <v>605</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" t="s">
         <v>606</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" t="s">
         <v>607</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" t="s">
         <v>608</v>
       </c>
-      <c r="G102" s="0" t="s">
+      <c r="G102" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" t="s">
         <v>610</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>611</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" t="s">
         <v>612</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" t="s">
         <v>613</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" t="s">
         <v>614</v>
       </c>
-      <c r="G103" s="0" t="s">
+      <c r="G103" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>616</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>617</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" t="s">
         <v>618</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" t="s">
         <v>619</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" t="s">
         <v>620</v>
       </c>
-      <c r="G104" s="0" t="s">
+      <c r="G104" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" t="s">
         <v>622</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>623</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" t="s">
         <v>624</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" t="s">
         <v>625</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" t="s">
         <v>626</v>
       </c>
-      <c r="G105" s="0" t="s">
+      <c r="G105" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" t="s">
         <v>628</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>629</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" t="s">
         <v>630</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" t="s">
         <v>631</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" t="s">
         <v>632</v>
       </c>
-      <c r="G106" s="0" t="s">
+      <c r="G106" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>634</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>635</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" t="s">
         <v>636</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" t="s">
         <v>637</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" t="s">
         <v>638</v>
       </c>
-      <c r="G107" s="0" t="s">
+      <c r="G107" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" t="s">
         <v>640</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>641</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" t="s">
         <v>642</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" t="s">
         <v>643</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" t="s">
         <v>644</v>
       </c>
-      <c r="G108" s="0" t="s">
+      <c r="G108" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" t="s">
         <v>646</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>647</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" t="s">
         <v>648</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" t="s">
         <v>649</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F109" t="s">
         <v>650</v>
       </c>
-      <c r="G109" s="0" t="s">
+      <c r="G109" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" t="s">
         <v>652</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>653</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" t="s">
         <v>654</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" t="s">
         <v>655</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" t="s">
         <v>656</v>
       </c>
-      <c r="G110" s="0" t="s">
+      <c r="G110" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" t="s">
         <v>658</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>659</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" t="s">
         <v>660</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" t="s">
         <v>661</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" t="s">
         <v>662</v>
       </c>
-      <c r="G111" s="0" t="s">
+      <c r="G111" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>664</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" t="s">
         <v>665</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" t="s">
         <v>666</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" t="s">
         <v>667</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" t="s">
         <v>668</v>
       </c>
-      <c r="G112" s="0" t="s">
+      <c r="G112" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>670</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>671</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" t="s">
         <v>672</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" t="s">
         <v>673</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F113" t="s">
         <v>674</v>
       </c>
-      <c r="G113" s="0" t="s">
+      <c r="G113" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>676</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>677</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>678</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" t="s">
         <v>679</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" t="s">
         <v>680</v>
       </c>
-      <c r="G114" s="0" t="s">
+      <c r="G114" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>682</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>683</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>684</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" t="s">
         <v>685</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F115" t="s">
         <v>686</v>
       </c>
-      <c r="G115" s="0" t="s">
+      <c r="G115" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>688</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>689</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" t="s">
         <v>690</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" t="s">
         <v>691</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" t="s">
         <v>692</v>
       </c>
-      <c r="G116" s="0" t="s">
+      <c r="G116" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>694</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>695</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" t="s">
         <v>696</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" t="s">
         <v>697</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" t="s">
         <v>698</v>
       </c>
-      <c r="G117" s="0" t="s">
+      <c r="G117" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" t="s">
         <v>700</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>701</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" t="s">
         <v>702</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" t="s">
         <v>703</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F118" t="s">
         <v>704</v>
       </c>
-      <c r="G118" s="0" t="s">
+      <c r="G118" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>706</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>707</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" t="s">
         <v>708</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" t="s">
         <v>709</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" t="s">
         <v>710</v>
       </c>
-      <c r="G119" s="0" t="s">
+      <c r="G119" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>712</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>713</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" t="s">
         <v>714</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" t="s">
         <v>715</v>
       </c>
-      <c r="F120" s="0" t="s">
+      <c r="F120" t="s">
         <v>716</v>
       </c>
-      <c r="G120" s="0" t="s">
+      <c r="G120" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>718</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" t="s">
         <v>719</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" t="s">
         <v>720</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" t="s">
         <v>721</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" t="s">
         <v>722</v>
       </c>
-      <c r="G121" s="0" t="s">
+      <c r="G121" t="s">
         <v>723</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -7038,3097 +7258,2806 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.5969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="82.1581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.6938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="4.42578125"/>
+    <col min="2" max="2" width="78.7109375"/>
+    <col min="3" max="3" width="32.7109375"/>
+    <col min="4" max="4" width="81.5703125"/>
+    <col min="5" max="5" width="32.7109375"/>
+    <col min="6" max="6" width="82.140625"/>
+    <col min="7" max="7" width="32.7109375"/>
+    <col min="8" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>544</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>545</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>546</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>547</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>548</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>587</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>588</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>589</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>590</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>634</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>635</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>636</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>637</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>638</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>664</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>665</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>666</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>667</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>668</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>724</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>725</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>726</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>727</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>728</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>730</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>731</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>732</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>733</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>734</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>736</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>737</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>738</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>739</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>740</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>742</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>743</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>744</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>745</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>746</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>748</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>749</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>750</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>751</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>752</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>754</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>755</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>756</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>757</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>758</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>760</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>761</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>762</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>763</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>764</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>766</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>767</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>768</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>769</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>770</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>151</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>170</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>772</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>773</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>774</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>775</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>776</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>778</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>779</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>780</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>781</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>782</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>784</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>785</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>786</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>787</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>788</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>790</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>791</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>792</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>793</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>794</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>796</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>797</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>798</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>799</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>800</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>802</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>803</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>804</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>805</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>806</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>808</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>809</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>810</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>811</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>812</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>814</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>815</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>816</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>817</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>818</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>820</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>821</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>822</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>823</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>824</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>826</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>827</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>828</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>829</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>830</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>832</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>833</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>834</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>835</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>836</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>838</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>839</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>840</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>841</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>842</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>844</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>845</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>846</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>847</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>848</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>850</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>851</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>852</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>853</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>854</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>856</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>857</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>858</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>859</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>860</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>862</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>863</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>864</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>865</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" t="s">
         <v>866</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>868</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>869</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>870</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>871</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" t="s">
         <v>872</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>874</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>875</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>876</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>877</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" t="s">
         <v>878</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>880</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>881</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>882</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>883</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>884</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>886</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>887</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>888</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>889</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>890</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>892</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>893</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>894</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>895</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>896</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>898</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>899</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>900</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>901</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>902</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>904</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>905</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>906</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>907</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>908</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>910</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>911</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>912</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>913</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>914</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>916</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>917</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>918</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>919</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" t="s">
         <v>920</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>922</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>923</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>924</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>925</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>926</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>928</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>929</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>930</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>931</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>932</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>934</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>935</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>936</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>937</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" t="s">
         <v>938</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>940</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>941</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>942</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" t="s">
         <v>943</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" t="s">
         <v>944</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>946</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>947</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>948</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>949</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" t="s">
         <v>950</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>952</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>953</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>954</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>955</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" t="s">
         <v>956</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>400</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>401</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>402</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" t="s">
         <v>403</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" t="s">
         <v>404</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>526</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>527</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>528</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" t="s">
         <v>529</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" t="s">
         <v>530</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>958</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>959</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>960</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" t="s">
         <v>961</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" t="s">
         <v>962</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>964</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>965</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>966</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>967</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" t="s">
         <v>968</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>970</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>971</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>972</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" t="s">
         <v>973</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" t="s">
         <v>974</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>976</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>977</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>978</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" t="s">
         <v>979</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" t="s">
         <v>980</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>982</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>983</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>984</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" t="s">
         <v>985</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" t="s">
         <v>986</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>988</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>989</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>990</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" t="s">
         <v>991</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" t="s">
         <v>992</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>994</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>995</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>996</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" t="s">
         <v>997</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" t="s">
         <v>998</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>1000</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>1001</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>1002</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" t="s">
         <v>1003</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" t="s">
         <v>1004</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>1006</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>1007</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>1008</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" t="s">
         <v>1009</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" t="s">
         <v>1010</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>1012</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>1013</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" t="s">
         <v>1014</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" t="s">
         <v>1015</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" t="s">
         <v>1016</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>1018</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>1019</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>1020</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" t="s">
         <v>1021</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" t="s">
         <v>1022</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>1024</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>1025</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>1026</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" t="s">
         <v>1027</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" t="s">
         <v>1028</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>1030</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>1031</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>1032</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" t="s">
         <v>1033</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" t="s">
         <v>1034</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>1036</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>1037</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" t="s">
         <v>1038</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" t="s">
         <v>1039</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" t="s">
         <v>1040</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>1042</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>1043</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" t="s">
         <v>1044</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" t="s">
         <v>1045</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" t="s">
         <v>1046</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>1048</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>1049</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>1050</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" t="s">
         <v>1051</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" t="s">
         <v>1052</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>1054</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>1055</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>1056</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" t="s">
         <v>1057</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" t="s">
         <v>1058</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>1060</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>1061</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>1062</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" t="s">
         <v>1063</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" t="s">
         <v>1064</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>1066</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>1067</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>1068</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" t="s">
         <v>1069</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" t="s">
         <v>1070</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>1072</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>1073</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>1074</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" t="s">
         <v>1075</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" t="s">
         <v>1076</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>1078</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>1079</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>1080</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" t="s">
         <v>1081</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" t="s">
         <v>1082</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>1084</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>1085</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>1086</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" t="s">
         <v>1087</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" t="s">
         <v>1088</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>1090</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>1091</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" t="s">
         <v>1092</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" t="s">
         <v>1093</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" t="s">
         <v>1094</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>1096</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>1097</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" t="s">
         <v>1098</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" t="s">
         <v>1099</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" t="s">
         <v>1100</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>1102</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>1103</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" t="s">
         <v>1104</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" t="s">
         <v>1105</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" t="s">
         <v>1106</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G76" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>1108</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>1109</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" t="s">
         <v>1110</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" t="s">
         <v>1111</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" t="s">
         <v>1112</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>1114</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>1115</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" t="s">
         <v>1116</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" t="s">
         <v>1117</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" t="s">
         <v>1118</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>1120</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>1121</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" t="s">
         <v>1122</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" t="s">
         <v>1123</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" t="s">
         <v>1124</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="G79" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>1126</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>1127</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" t="s">
         <v>1128</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" t="s">
         <v>1129</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" t="s">
         <v>1130</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="G80" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>1132</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>1133</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" t="s">
         <v>1134</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" t="s">
         <v>1135</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" t="s">
         <v>1136</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>1138</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>1139</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" t="s">
         <v>1140</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" t="s">
         <v>1141</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" t="s">
         <v>1142</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>1144</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>1145</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" t="s">
         <v>1146</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" t="s">
         <v>1147</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" t="s">
         <v>1148</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="G83" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>1150</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>1151</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" t="s">
         <v>1152</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" t="s">
         <v>1153</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" t="s">
         <v>1154</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="G84" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>1156</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>1157</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" t="s">
         <v>1158</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" t="s">
         <v>1159</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" t="s">
         <v>1160</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="G85" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>1162</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>1163</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" t="s">
         <v>1164</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" t="s">
         <v>1165</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" t="s">
         <v>1166</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="G86" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>1168</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>1169</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" t="s">
         <v>1170</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" t="s">
         <v>1171</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" t="s">
         <v>1172</v>
       </c>
-      <c r="G87" s="0" t="s">
+      <c r="G87" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>1174</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>1175</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" t="s">
         <v>1176</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" t="s">
         <v>1177</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" t="s">
         <v>1178</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="G88" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>1180</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>1181</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" t="s">
         <v>1182</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" t="s">
         <v>1183</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" t="s">
         <v>1184</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="G89" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>1186</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>1187</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" t="s">
         <v>1188</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" t="s">
         <v>1189</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" t="s">
         <v>1190</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="G90" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>1192</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>1193</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" t="s">
         <v>1194</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" t="s">
         <v>1195</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" t="s">
         <v>1196</v>
       </c>
-      <c r="G91" s="0" t="s">
+      <c r="G91" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>1198</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>1199</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" t="s">
         <v>1200</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" t="s">
         <v>1201</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" t="s">
         <v>1202</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>1204</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>1205</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" t="s">
         <v>1206</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" t="s">
         <v>1207</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" t="s">
         <v>1208</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="G93" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>1210</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>1211</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>1212</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" t="s">
         <v>1213</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" t="s">
         <v>1214</v>
       </c>
-      <c r="G94" s="0" t="s">
+      <c r="G94" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>1216</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>1217</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" t="s">
         <v>1218</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" t="s">
         <v>1219</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" t="s">
         <v>1220</v>
       </c>
-      <c r="G95" s="0" t="s">
+      <c r="G95" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>1222</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>1223</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" t="s">
         <v>1224</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" t="s">
         <v>1225</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" t="s">
         <v>1226</v>
       </c>
-      <c r="G96" s="0" t="s">
+      <c r="G96" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>1228</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>1229</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" t="s">
         <v>1230</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" t="s">
         <v>1231</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" t="s">
         <v>1232</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="G97" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>1234</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>1235</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" t="s">
         <v>1236</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" t="s">
         <v>1237</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" t="s">
         <v>1238</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="G98" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>1240</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>1241</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" t="s">
         <v>1242</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" t="s">
         <v>1243</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F99" t="s">
         <v>1244</v>
       </c>
-      <c r="G99" s="0" t="s">
+      <c r="G99" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>1246</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>1247</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" t="s">
         <v>1248</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" t="s">
         <v>1249</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" t="s">
         <v>1250</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="G100" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>1252</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>1253</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" t="s">
         <v>1254</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" t="s">
         <v>1255</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" t="s">
         <v>1256</v>
       </c>
-      <c r="G101" s="0" t="s">
+      <c r="G101" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>1258</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" t="s">
         <v>1259</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" t="s">
         <v>1260</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" t="s">
         <v>1261</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" t="s">
         <v>1262</v>
       </c>
-      <c r="G102" s="0" t="s">
+      <c r="G102" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" t="s">
         <v>1264</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>1265</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" t="s">
         <v>1266</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" t="s">
         <v>1267</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" t="s">
         <v>1268</v>
       </c>
-      <c r="G103" s="0" t="s">
+      <c r="G103" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>1270</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>1271</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" t="s">
         <v>1272</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" t="s">
         <v>1273</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" t="s">
         <v>1274</v>
       </c>
-      <c r="G104" s="0" t="s">
+      <c r="G104" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" t="s">
         <v>1276</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>1277</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" t="s">
         <v>1278</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" t="s">
         <v>1279</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" t="s">
         <v>1280</v>
       </c>
-      <c r="G105" s="0" t="s">
+      <c r="G105" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" t="s">
         <v>1282</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>1283</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" t="s">
         <v>1284</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" t="s">
         <v>1285</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" t="s">
         <v>1286</v>
       </c>
-      <c r="G106" s="0" t="s">
+      <c r="G106" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>1288</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>1289</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" t="s">
         <v>1290</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" t="s">
         <v>1291</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" t="s">
         <v>1292</v>
       </c>
-      <c r="G107" s="0" t="s">
+      <c r="G107" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" t="s">
         <v>1294</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>1295</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" t="s">
         <v>1296</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" t="s">
         <v>1297</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" t="s">
         <v>1298</v>
       </c>
-      <c r="G108" s="0" t="s">
+      <c r="G108" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" t="s">
         <v>1300</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>1301</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" t="s">
         <v>1302</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" t="s">
         <v>1303</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F109" t="s">
         <v>1304</v>
       </c>
-      <c r="G109" s="0" t="s">
+      <c r="G109" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" t="s">
         <v>226</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>227</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" t="s">
         <v>228</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" t="s">
         <v>229</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" t="s">
         <v>230</v>
       </c>
-      <c r="G110" s="0" t="s">
+      <c r="G110" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" t="s">
         <v>1306</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>1307</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" t="s">
         <v>1308</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" t="s">
         <v>1309</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" t="s">
         <v>1310</v>
       </c>
-      <c r="G111" s="0" t="s">
+      <c r="G111" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>1312</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" t="s">
         <v>1313</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" t="s">
         <v>1314</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" t="s">
         <v>1315</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" t="s">
         <v>1316</v>
       </c>
-      <c r="G112" s="0" t="s">
+      <c r="G112" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>1318</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>1319</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" t="s">
         <v>1320</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" t="s">
         <v>1321</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F113" t="s">
         <v>1322</v>
       </c>
-      <c r="G113" s="0" t="s">
+      <c r="G113" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>1324</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>1325</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>1326</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" t="s">
         <v>1327</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" t="s">
         <v>1328</v>
       </c>
-      <c r="G114" s="0" t="s">
+      <c r="G114" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>1330</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>1331</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>1332</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" t="s">
         <v>1333</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F115" t="s">
         <v>1334</v>
       </c>
-      <c r="G115" s="0" t="s">
+      <c r="G115" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>1336</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>1337</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" t="s">
         <v>1338</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" t="s">
         <v>1339</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" t="s">
         <v>1340</v>
       </c>
-      <c r="G116" s="0" t="s">
+      <c r="G116" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>1342</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>1343</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" t="s">
         <v>1344</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" t="s">
         <v>1345</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" t="s">
         <v>1346</v>
       </c>
-      <c r="G117" s="0" t="s">
+      <c r="G117" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" t="s">
         <v>1348</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>1349</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" t="s">
         <v>1350</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" t="s">
         <v>1351</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F118" t="s">
         <v>1352</v>
       </c>
-      <c r="G118" s="0" t="s">
+      <c r="G118" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>1354</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>1355</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" t="s">
         <v>1356</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" t="s">
         <v>1357</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" t="s">
         <v>1358</v>
       </c>
-      <c r="G119" s="0" t="s">
+      <c r="G119" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>1360</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>1361</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" t="s">
         <v>1362</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" t="s">
         <v>1363</v>
       </c>
-      <c r="F120" s="0" t="s">
+      <c r="F120" t="s">
         <v>1364</v>
       </c>
-      <c r="G120" s="0" t="s">
+      <c r="G120" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>1366</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" t="s">
         <v>1367</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" t="s">
         <v>1368</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" t="s">
         <v>1369</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" t="s">
         <v>1370</v>
       </c>
-      <c r="G121" s="0" t="s">
+      <c r="G121" t="s">
         <v>1371</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.2704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.5969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="82.1581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>910</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>911</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>912</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>913</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>111</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>1315</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>106</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
